--- a/src/main/webapp/excelTemplate/tds1.xlsx
+++ b/src/main/webapp/excelTemplate/tds1.xlsx
@@ -171,7 +171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,6 +183,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -467,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -481,10 +487,10 @@
     <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="47.09765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47.09765625" style="4" customWidth="1"/>
     <col min="10" max="10" width="15.59765625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="48.59765625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="35.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="48.59765625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="35.5" style="4" customWidth="1"/>
     <col min="13" max="13" width="16.5" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.796875" style="1"/>
   </cols>
@@ -517,16 +523,16 @@
       <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="3" t="s">
